--- a/Performance_calculator.xlsx
+++ b/Performance_calculator.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B786013-B8A0-4ED4-854F-75F68B705FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55CCAF0-2BD0-4389-8FFB-546AD8864EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CD3E73B7-05B9-44C8-ACAD-2F22B5A65086}"/>
+    <workbookView xWindow="14505" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CD3E73B7-05B9-44C8-ACAD-2F22B5A65086}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Data_Validation" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Data_Validation" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,113 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
-  <si>
-    <t>Sampling Frequency</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Period</t>
   </si>
   <si>
-    <t>Stage 1</t>
-  </si>
-  <si>
-    <t>Stage 2</t>
-  </si>
-  <si>
-    <t>Integration period</t>
-  </si>
-  <si>
     <t>BW/N</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>range_res</t>
-  </si>
-  <si>
     <t>BW</t>
   </si>
   <si>
-    <t>Integration sample</t>
-  </si>
-  <si>
-    <t>Fundemental Frequency</t>
-  </si>
-  <si>
-    <t>Instant BW</t>
-  </si>
-  <si>
-    <t>Signal Summary</t>
-  </si>
-  <si>
-    <t>T_frame</t>
-  </si>
-  <si>
-    <t>Fundemental Period</t>
-  </si>
-  <si>
-    <t>Ts</t>
-  </si>
-  <si>
-    <t>Tu</t>
-  </si>
-  <si>
-    <t>Guard Interval</t>
-  </si>
-  <si>
-    <t>Tg</t>
-  </si>
-  <si>
-    <t>Sym/pulse</t>
-  </si>
-  <si>
-    <t>Tp</t>
-  </si>
-  <si>
-    <t>pulse/Frame</t>
-  </si>
-  <si>
-    <t>Range res</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>runtine</t>
-  </si>
-  <si>
-    <t>Num_frames</t>
-  </si>
-  <si>
-    <t>prf</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
     <t>fc</t>
   </si>
   <si>
-    <t xml:space="preserve">CPI </t>
-  </si>
-  <si>
-    <t>Max V</t>
-  </si>
-  <si>
     <t>V_res</t>
   </si>
   <si>
-    <t>R_max</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Frequencies</t>
   </si>
   <si>
@@ -184,25 +99,191 @@
   </si>
   <si>
     <t>Rmax (m)</t>
+  </si>
+  <si>
+    <t>Sampling rate</t>
+  </si>
+  <si>
+    <t>BW reduction</t>
+  </si>
+  <si>
+    <t>Usable BW</t>
+  </si>
+  <si>
+    <t>Range resolution</t>
+  </si>
+  <si>
+    <t>Fund Frequency</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>Allowed N</t>
+  </si>
+  <si>
+    <t>tb/N</t>
+  </si>
+  <si>
+    <t>Doppler resolution</t>
+  </si>
+  <si>
+    <t>1/T</t>
+  </si>
+  <si>
+    <t>Delay resolution</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Range Resolution</t>
+  </si>
+  <si>
+    <t>Velocity Resolution</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Vmax</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>at least</t>
+  </si>
+  <si>
+    <t>Symbols</t>
+  </si>
+  <si>
+    <t>Carriers</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>symbols</t>
+  </si>
+  <si>
+    <t>modulated chips</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Pulse length</t>
+  </si>
+  <si>
+    <t>(formula)</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>bit duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>N/tb</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Descriptors</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Doppler resolution in reciprical of time-bandwidth product</t>
+  </si>
+  <si>
+    <t>Delay resolution is reciprical of time-bandwidth multiplied by pulse length</t>
+  </si>
+  <si>
+    <t>Rmax</t>
+  </si>
+  <si>
+    <t>Rmax defines T</t>
+  </si>
+  <si>
+    <t>T/(MN)</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>f_samp</t>
+  </si>
+  <si>
+    <t>T_int</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>S/s</t>
+  </si>
+  <si>
+    <t>Siganl Calculation</t>
+  </si>
+  <si>
+    <t>Resulting Performance</t>
+  </si>
+  <si>
+    <t>Structural Parameters</t>
+  </si>
+  <si>
+    <t>pulses</t>
+  </si>
+  <si>
+    <t>Total Length</t>
+  </si>
+  <si>
+    <t>Range_res</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>check this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,8 +296,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,72 +328,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -371,37 +423,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,640 +777,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7891A974-94BD-40DD-9E7D-5F7DF0C68A8A}">
-  <dimension ref="C1:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2048</v>
-      </c>
-      <c r="I3" s="7">
-        <f>1/(H3*G$6)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>2048000</v>
-      </c>
-      <c r="D4" s="1">
-        <f>1/C4</f>
-        <v>4.8828125000000001E-7</v>
-      </c>
-      <c r="G4" s="3">
-        <f>C4</f>
-        <v>2048000</v>
-      </c>
-      <c r="H4" s="8">
-        <f>2*H3</f>
-        <v>4096</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I6" si="0">1/(H4*G$6)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>20480000</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D6" si="1">1/C5</f>
-        <v>4.8828125000000002E-8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <f>5*H3</f>
-        <v>10240</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>204800000</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>4.8828125000000004E-9</v>
-      </c>
-      <c r="G6" s="5">
-        <f>D4</f>
-        <v>4.8828125000000001E-7</v>
-      </c>
-      <c r="H6" s="10">
-        <f>10*H3</f>
-        <v>20480</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>2048</v>
-      </c>
-      <c r="I13" s="7">
-        <f>1/(H13*G$16)</f>
-        <v>10000</v>
-      </c>
-      <c r="J13">
-        <v>200</v>
-      </c>
-      <c r="K13" s="1">
-        <f>J13*I13</f>
-        <v>2000000</v>
-      </c>
-      <c r="L13" s="1">
-        <f>300000000/(2*K13)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="3">
-        <f>C5</f>
-        <v>20480000</v>
-      </c>
-      <c r="H14" s="8">
-        <f>2*H13</f>
-        <v>4096</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" ref="I14:I16" si="2">1/(H14*G$16)</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
-        <f>5*H13</f>
-        <v>10240</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="5">
-        <f>D5</f>
-        <v>4.8828125000000002E-8</v>
-      </c>
-      <c r="H16" s="10">
-        <f>10*H13</f>
-        <v>20480</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="1"/>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2048</v>
-      </c>
-      <c r="I22" s="7">
-        <f>1/(H22*G$25)</f>
-        <v>99999.999999999985</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="3">
-        <f>C6</f>
-        <v>204800000</v>
-      </c>
-      <c r="H23" s="8">
-        <f>2*H22</f>
-        <v>4096</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" ref="I23:I25" si="3">1/(H23*G$25)</f>
-        <v>49999.999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8">
-        <f>5*H22</f>
-        <v>10240</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="5">
-        <f>D6</f>
-        <v>4.8828125000000004E-9</v>
-      </c>
-      <c r="H25" s="10">
-        <f>10*H22</f>
-        <v>20480</v>
-      </c>
-      <c r="I25" s="11">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4FE320-FB3A-47DC-A3A0-3920CAB9DCF2}">
-  <dimension ref="B1:S18"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="1">
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="4" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E5" s="12">
-        <f>2*2048</f>
-        <v>4096</v>
-      </c>
-      <c r="G5" s="1">
-        <f>E7/(E5)</f>
-        <v>50000</v>
-      </c>
-      <c r="I5" s="14">
-        <f>G5*G7</f>
-        <v>2000000</v>
-      </c>
-      <c r="K5" s="1">
-        <f>E9*E5</f>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="M5" s="1">
-        <f>K5+K7</f>
-        <v>2.4921875000000001E-5</v>
-      </c>
-      <c r="O5" s="1">
-        <f>M5*M7</f>
-        <v>4.9843750000000002E-5</v>
-      </c>
-      <c r="Q5" s="14">
-        <f>O7*O5</f>
-        <v>4.9843749999999997E-4</v>
-      </c>
-      <c r="S5" s="16">
-        <f>ROUND(Q8/Q5,0)</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E7" s="13">
-        <v>204800000</v>
-      </c>
-      <c r="G7" s="12">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1">
-        <f>E11*E9</f>
-        <v>4.9218750000000002E-6</v>
-      </c>
-      <c r="M7" s="12">
-        <v>2</v>
-      </c>
-      <c r="O7" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E9" s="1">
-        <f>1/E7</f>
-        <v>4.8828125000000004E-9</v>
-      </c>
-    </row>
-    <row r="10" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E11" s="12">
-        <f>2*504</f>
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="14" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="17">
-        <f>300000000/(2*I5)</f>
-        <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <f>L16/O16</f>
-        <v>250.78369905956114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16">
-        <f>1/Q5</f>
-        <v>2006.2695924764892</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16">
-        <f>300000000/E2</f>
-        <v>0.125</v>
-      </c>
-      <c r="N16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16">
-        <f>Q5</f>
-        <v>4.9843749999999997E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <f>2*F16/(S5)</f>
-        <v>2.4953601896473745</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1">
-        <f>Q5*300000000/2000</f>
-        <v>74.765625</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6CB4CA-F404-4715-AE12-78F41E73554C}">
   <dimension ref="B1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="8" customWidth="1"/>
     <col min="25" max="25" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="24">
-        <v>20480000</v>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12">
+        <v>61440000</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L1">
         <v>1</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
       <c r="Y1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>1/C1</f>
-        <v>4.8828125000000002E-8</v>
+        <v>1.6276041666666667E-8</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <f xml:space="preserve"> 2048/4</f>
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="G2">
-        <f xml:space="preserve"> 504/4</f>
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="H2">
         <f>SUM(F2:G2)</f>
-        <v>638</v>
+        <v>1276</v>
       </c>
       <c r="J2" s="1">
         <f>1/(F2*C$2)</f>
-        <v>40000</v>
-      </c>
-      <c r="M2" s="8">
+        <v>60000</v>
+      </c>
+      <c r="M2" s="13">
         <v>6</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="14">
         <f t="shared" ref="N2:N7" si="0">$J$2*M2</f>
-        <v>240000</v>
-      </c>
-      <c r="P2">
+        <v>360000</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15">
         <f>C$5</f>
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="15">
         <f>C$6</f>
         <v>5</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="16">
         <f>P2*Q2*H$2*C$2</f>
-        <v>3.1152343750000001E-4</v>
-      </c>
-      <c r="S2" s="22">
+        <v>2.0768229166666667E-4</v>
+      </c>
+      <c r="S2" s="17">
         <f>1/R2</f>
-        <v>3210.0313479623824</v>
-      </c>
-      <c r="T2">
+        <v>4815.0470219435738</v>
+      </c>
+      <c r="T2" s="15">
         <f>ROUND(S2*C$9,0)</f>
-        <v>161</v>
-      </c>
-      <c r="V2" s="22">
+        <v>241</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="17">
         <f>300000000/(4*C$3*R2)</f>
-        <v>100.31347962382445</v>
-      </c>
-      <c r="W2" s="21">
+        <v>150.47021943573668</v>
+      </c>
+      <c r="W2" s="18">
         <f>300000000/(2*C$9*C$3)</f>
         <v>1.25</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="19">
         <f>R2*300000000/2</f>
-        <v>46728.515625</v>
+        <v>31152.34375</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>2400000000</v>
@@ -1356,26 +932,26 @@
       </c>
       <c r="F3">
         <f>2*F2</f>
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="G3">
         <f>2*G2</f>
-        <v>252</v>
+        <v>504</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="1">SUM(F3:G3)</f>
-        <v>1276</v>
+        <v>2552</v>
       </c>
       <c r="J3" s="1">
         <f>1/(F3*C$2)</f>
-        <v>20000</v>
-      </c>
-      <c r="M3" s="8">
+        <v>30000</v>
+      </c>
+      <c r="M3" s="3">
         <v>10</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P39" si="2">C$5</f>
@@ -1385,29 +961,29 @@
         <f t="shared" ref="Q3:Q39" si="3">C$6</f>
         <v>5</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="8">
         <f t="shared" ref="R3:R7" si="4">P3*Q3*H$2*C$2</f>
-        <v>3.1152343750000001E-4</v>
-      </c>
-      <c r="S3" s="22">
+        <v>2.0768229166666667E-4</v>
+      </c>
+      <c r="S3" s="11">
         <f t="shared" ref="S3:S39" si="5">1/R3</f>
-        <v>3210.0313479623824</v>
+        <v>4815.0470219435738</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T38" si="6">ROUND(S3*C$9,0)</f>
-        <v>161</v>
-      </c>
-      <c r="V3" s="22">
+        <v>241</v>
+      </c>
+      <c r="V3" s="11">
         <f t="shared" ref="V3:V39" si="7">300000000/(4*C$3*R3)</f>
-        <v>100.31347962382445</v>
-      </c>
-      <c r="W3" s="21">
+        <v>150.47021943573668</v>
+      </c>
+      <c r="W3" s="10">
         <f t="shared" ref="W3:W39" si="8">300000000/(2*C$9*C$3)</f>
         <v>1.25</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y38" si="9">R3*300000000/2</f>
-        <v>46728.515625</v>
+        <v>31152.34375</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
@@ -1416,26 +992,26 @@
       </c>
       <c r="F4">
         <f>5*F2</f>
-        <v>2560</v>
+        <v>5120</v>
       </c>
       <c r="G4">
         <f>5*G2</f>
-        <v>630</v>
+        <v>1260</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>3190</v>
+        <v>6380</v>
       </c>
       <c r="J4" s="1">
         <f>1/(F4*C$2)</f>
-        <v>8000</v>
-      </c>
-      <c r="M4" s="8">
+        <v>11999.999999999998</v>
+      </c>
+      <c r="M4" s="3">
         <v>50</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
@@ -1445,34 +1021,34 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="8">
         <f t="shared" si="4"/>
-        <v>3.1152343750000001E-4</v>
-      </c>
-      <c r="S4" s="22">
+        <v>2.0768229166666667E-4</v>
+      </c>
+      <c r="S4" s="11">
         <f>1/R4</f>
-        <v>3210.0313479623824</v>
+        <v>4815.0470219435738</v>
       </c>
       <c r="T4">
         <f t="shared" si="6"/>
-        <v>161</v>
-      </c>
-      <c r="V4" s="22">
-        <f t="shared" si="7"/>
-        <v>100.31347962382445</v>
-      </c>
-      <c r="W4" s="21">
+        <v>241</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="7"/>
+        <v>150.47021943573668</v>
+      </c>
+      <c r="W4" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y4">
         <f t="shared" si="9"/>
-        <v>46728.515625</v>
+        <v>31152.34375</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1482,26 +1058,26 @@
       </c>
       <c r="F5">
         <f>10*F2</f>
-        <v>5120</v>
+        <v>10240</v>
       </c>
       <c r="G5">
         <f>10*G2</f>
-        <v>1260</v>
+        <v>2520</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>6380</v>
+        <v>12760</v>
       </c>
       <c r="J5" s="1">
         <f>1/(F5*C$2)</f>
-        <v>4000</v>
-      </c>
-      <c r="M5" s="8">
+        <v>5999.9999999999991</v>
+      </c>
+      <c r="M5" s="3">
         <v>100</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
@@ -1511,44 +1087,44 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="8">
         <f t="shared" si="4"/>
-        <v>3.1152343750000001E-4</v>
-      </c>
-      <c r="S5" s="22">
+        <v>2.0768229166666667E-4</v>
+      </c>
+      <c r="S5" s="11">
         <f t="shared" si="5"/>
-        <v>3210.0313479623824</v>
+        <v>4815.0470219435738</v>
       </c>
       <c r="T5">
         <f t="shared" si="6"/>
-        <v>161</v>
-      </c>
-      <c r="V5" s="22">
-        <f t="shared" si="7"/>
-        <v>100.31347962382445</v>
-      </c>
-      <c r="W5" s="21">
+        <v>241</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="7"/>
+        <v>150.47021943573668</v>
+      </c>
+      <c r="W5" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y5">
         <f t="shared" si="9"/>
-        <v>46728.515625</v>
+        <v>31152.34375</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="3">
         <v>200</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
@@ -1558,38 +1134,38 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="8">
         <f t="shared" si="4"/>
-        <v>3.1152343750000001E-4</v>
-      </c>
-      <c r="S6" s="22">
+        <v>2.0768229166666667E-4</v>
+      </c>
+      <c r="S6" s="11">
         <f t="shared" si="5"/>
-        <v>3210.0313479623824</v>
+        <v>4815.0470219435738</v>
       </c>
       <c r="T6">
         <f t="shared" si="6"/>
-        <v>161</v>
-      </c>
-      <c r="V6" s="22">
-        <f t="shared" si="7"/>
-        <v>100.31347962382445</v>
-      </c>
-      <c r="W6" s="21">
+        <v>241</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="7"/>
+        <v>150.47021943573668</v>
+      </c>
+      <c r="W6" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y6">
         <f t="shared" si="9"/>
-        <v>46728.515625</v>
+        <v>31152.34375</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="M7" s="10">
+      <c r="M7" s="5">
         <v>500</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="6">
         <f t="shared" si="0"/>
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
@@ -1599,39 +1175,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="8">
         <f t="shared" si="4"/>
-        <v>3.1152343750000001E-4</v>
-      </c>
-      <c r="S7" s="22">
+        <v>2.0768229166666667E-4</v>
+      </c>
+      <c r="S7" s="11">
         <f t="shared" si="5"/>
-        <v>3210.0313479623824</v>
+        <v>4815.0470219435738</v>
       </c>
       <c r="T7">
         <f t="shared" si="6"/>
-        <v>161</v>
-      </c>
-      <c r="V7" s="22">
-        <f t="shared" si="7"/>
-        <v>100.31347962382445</v>
-      </c>
-      <c r="W7" s="21">
+        <v>241</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="7"/>
+        <v>150.47021943573668</v>
+      </c>
+      <c r="W7" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y7">
         <f t="shared" si="9"/>
-        <v>46728.515625</v>
+        <v>31152.34375</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="S8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="21"/>
+      <c r="S8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0.05</v>
@@ -1639,11 +1215,11 @@
       <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>8</v>
+      <c r="M9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
@@ -1653,39 +1229,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="8">
         <f>P9*Q9*H3*C$2</f>
-        <v>6.2304687500000001E-4</v>
-      </c>
-      <c r="S9" s="22">
+        <v>4.1536458333333334E-4</v>
+      </c>
+      <c r="S9" s="11">
         <f t="shared" si="5"/>
-        <v>1605.0156739811912</v>
+        <v>2407.5235109717869</v>
       </c>
       <c r="T9">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="V9" s="22">
-        <f t="shared" si="7"/>
-        <v>50.156739811912225</v>
-      </c>
-      <c r="W9" s="21">
+        <v>120</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="7"/>
+        <v>75.23510971786834</v>
+      </c>
+      <c r="W9" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y9">
         <f t="shared" si="9"/>
-        <v>93457.03125</v>
+        <v>62304.6875</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="M10" s="8">
+      <c r="M10" s="3">
         <f>M2</f>
         <v>6</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="4">
         <f t="shared" ref="N10:N15" si="10">$J$2*M10</f>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
@@ -1695,39 +1271,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="8">
         <f>R9</f>
-        <v>6.2304687500000001E-4</v>
-      </c>
-      <c r="S10" s="22">
+        <v>4.1536458333333334E-4</v>
+      </c>
+      <c r="S10" s="11">
         <f t="shared" si="5"/>
-        <v>1605.0156739811912</v>
+        <v>2407.5235109717869</v>
       </c>
       <c r="T10">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="V10" s="22">
-        <f t="shared" si="7"/>
-        <v>50.156739811912225</v>
-      </c>
-      <c r="W10" s="21">
+        <v>120</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="7"/>
+        <v>75.23510971786834</v>
+      </c>
+      <c r="W10" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y10">
         <f t="shared" si="9"/>
-        <v>93457.03125</v>
+        <v>62304.6875</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="M11" s="8">
+      <c r="M11" s="3">
         <f t="shared" ref="M11:M15" si="11">M3</f>
         <v>10</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="4">
         <f t="shared" si="10"/>
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
@@ -1737,39 +1313,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="8">
         <f t="shared" ref="R11:R15" si="12">R10</f>
-        <v>6.2304687500000001E-4</v>
-      </c>
-      <c r="S11" s="22">
+        <v>4.1536458333333334E-4</v>
+      </c>
+      <c r="S11" s="11">
         <f t="shared" si="5"/>
-        <v>1605.0156739811912</v>
+        <v>2407.5235109717869</v>
       </c>
       <c r="T11">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="V11" s="22">
-        <f t="shared" si="7"/>
-        <v>50.156739811912225</v>
-      </c>
-      <c r="W11" s="21">
+        <v>120</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="7"/>
+        <v>75.23510971786834</v>
+      </c>
+      <c r="W11" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y11">
         <f t="shared" si="9"/>
-        <v>93457.03125</v>
+        <v>62304.6875</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="M12" s="8">
+      <c r="M12" s="3">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="4">
         <f t="shared" si="10"/>
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
@@ -1779,39 +1355,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="8">
         <f t="shared" si="12"/>
-        <v>6.2304687500000001E-4</v>
-      </c>
-      <c r="S12" s="22">
+        <v>4.1536458333333334E-4</v>
+      </c>
+      <c r="S12" s="11">
         <f t="shared" si="5"/>
-        <v>1605.0156739811912</v>
+        <v>2407.5235109717869</v>
       </c>
       <c r="T12">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="V12" s="22">
-        <f t="shared" si="7"/>
-        <v>50.156739811912225</v>
-      </c>
-      <c r="W12" s="21">
+        <v>120</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="7"/>
+        <v>75.23510971786834</v>
+      </c>
+      <c r="W12" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y12">
         <f t="shared" si="9"/>
-        <v>93457.03125</v>
+        <v>62304.6875</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="M13" s="8">
+      <c r="M13" s="3">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="4">
         <f t="shared" si="10"/>
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
@@ -1821,39 +1397,46 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="8">
         <f t="shared" si="12"/>
-        <v>6.2304687500000001E-4</v>
-      </c>
-      <c r="S13" s="22">
+        <v>4.1536458333333334E-4</v>
+      </c>
+      <c r="S13" s="11">
         <f t="shared" si="5"/>
-        <v>1605.0156739811912</v>
+        <v>2407.5235109717869</v>
       </c>
       <c r="T13">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="7"/>
-        <v>50.156739811912225</v>
-      </c>
-      <c r="W13" s="21">
+        <v>120</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="7"/>
+        <v>75.23510971786834</v>
+      </c>
+      <c r="W13" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y13">
         <f t="shared" si="9"/>
-        <v>93457.03125</v>
+        <v>62304.6875</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="M14" s="8">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="20">
+        <f>C1</f>
+        <v>61440000</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="4">
         <f t="shared" si="10"/>
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
@@ -1863,39 +1446,46 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="8">
         <f t="shared" si="12"/>
-        <v>6.2304687500000001E-4</v>
-      </c>
-      <c r="S14" s="22">
+        <v>4.1536458333333334E-4</v>
+      </c>
+      <c r="S14" s="11">
         <f t="shared" si="5"/>
-        <v>1605.0156739811912</v>
+        <v>2407.5235109717869</v>
       </c>
       <c r="T14">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="V14" s="22">
-        <f t="shared" si="7"/>
-        <v>50.156739811912225</v>
-      </c>
-      <c r="W14" s="21">
+        <v>120</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="7"/>
+        <v>75.23510971786834</v>
+      </c>
+      <c r="W14" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y14">
         <f t="shared" si="9"/>
-        <v>93457.03125</v>
+        <v>62304.6875</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="M15" s="8">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <f>0.5*C14</f>
+        <v>30720000</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="11"/>
         <v>500</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="6">
         <f t="shared" si="10"/>
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
@@ -1905,45 +1495,51 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="8">
         <f t="shared" si="12"/>
-        <v>6.2304687500000001E-4</v>
-      </c>
-      <c r="S15" s="22">
+        <v>4.1536458333333334E-4</v>
+      </c>
+      <c r="S15" s="11">
         <f t="shared" si="5"/>
-        <v>1605.0156739811912</v>
+        <v>2407.5235109717869</v>
       </c>
       <c r="T15">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="V15" s="22">
-        <f t="shared" si="7"/>
-        <v>50.156739811912225</v>
-      </c>
-      <c r="W15" s="21">
+        <v>120</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="7"/>
+        <v>75.23510971786834</v>
+      </c>
+      <c r="W15" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y15">
         <f t="shared" si="9"/>
-        <v>93457.03125</v>
+        <v>62304.6875</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="S16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="21"/>
-    </row>
-    <row r="17" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="S16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
       <c r="L17">
         <v>3</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>8</v>
+      <c r="M17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
@@ -1953,39 +1549,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="8">
         <f>P17*Q17*H4*C$2</f>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S17" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S17" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T17">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V17" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W17" s="21">
+        <v>48</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W17" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y17">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="18" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M18" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M18" s="3">
         <f>M10</f>
         <v>6</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="4">
         <f t="shared" ref="N18:N23" si="13">$J$2*M18</f>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P18">
         <f t="shared" si="2"/>
@@ -1995,39 +1591,53 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="8">
         <f>R17</f>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S18" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S18" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T18">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V18" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W18" s="21">
+        <v>48</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W18" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y18">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="19" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M19" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C17*C15</f>
+        <v>15360000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="1">
+        <f>C19/J2</f>
+        <v>256</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" ref="M19:M23" si="14">M11</f>
         <v>10</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="4">
         <f t="shared" si="13"/>
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
@@ -2037,39 +1647,49 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R19" s="8">
         <f t="shared" ref="R19:R23" si="15">R18</f>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S19" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S19" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T19">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V19" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W19" s="21">
+        <v>48</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W19" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y19">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="20" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M20" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="8">
+        <f>300000000/(2*C19)</f>
+        <v>9.765625</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="3">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="4">
         <f t="shared" si="13"/>
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
@@ -2079,39 +1699,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="8">
         <f t="shared" si="15"/>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S20" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S20" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T20">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V20" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W20" s="21">
+        <v>48</v>
+      </c>
+      <c r="V20" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W20" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y20">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="21" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M21" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M21" s="3">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="4">
         <f t="shared" si="13"/>
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
@@ -2121,39 +1741,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="8">
         <f t="shared" si="15"/>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S21" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S21" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T21">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V21" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W21" s="21">
+        <v>48</v>
+      </c>
+      <c r="V21" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W21" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y21">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="22" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M22" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M22" s="3">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="4">
         <f t="shared" si="13"/>
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
@@ -2163,39 +1783,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R22" s="8">
         <f t="shared" si="15"/>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S22" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S22" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T22">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V22" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W22" s="21">
+        <v>48</v>
+      </c>
+      <c r="V22" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W22" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y22">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="23" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M23" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M23" s="3">
         <f t="shared" si="14"/>
         <v>500</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="6">
         <f t="shared" si="13"/>
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
@@ -2205,45 +1825,45 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="8">
         <f t="shared" si="15"/>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S23" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S23" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T23">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V23" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W23" s="21">
+        <v>48</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W23" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y23">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="24" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="S24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="21"/>
-    </row>
-    <row r="25" spans="12:25" x14ac:dyDescent="0.25">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>4</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>8</v>
+      <c r="M25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="P25">
         <f t="shared" si="2"/>
@@ -2253,39 +1873,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R25" s="19">
+      <c r="R25" s="8">
         <f>P25*Q25*H4*C$2</f>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S25" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S25" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T25">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V25" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W25" s="21">
+        <v>48</v>
+      </c>
+      <c r="V25" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W25" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y25">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="26" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M26" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M26" s="3">
         <f>M18</f>
         <v>6</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="4">
         <f t="shared" ref="N26:N31" si="16">$J$2*M26</f>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P26">
         <f t="shared" si="2"/>
@@ -2295,39 +1915,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="8">
         <f>R25</f>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S26" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S26" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T26">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V26" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W26" s="21">
+        <v>48</v>
+      </c>
+      <c r="V26" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W26" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y26">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="27" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M27" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M27" s="3">
         <f t="shared" ref="M27:M31" si="17">M19</f>
         <v>10</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="4">
         <f t="shared" si="16"/>
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="P27">
         <f t="shared" si="2"/>
@@ -2337,39 +1957,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="8">
         <f t="shared" ref="R27:R31" si="18">R26</f>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S27" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S27" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T27">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V27" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W27" s="21">
+        <v>48</v>
+      </c>
+      <c r="V27" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W27" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y27">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="28" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M28" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M28" s="3">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="4">
         <f t="shared" si="16"/>
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="P28">
         <f t="shared" si="2"/>
@@ -2379,39 +1999,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="8">
         <f t="shared" si="18"/>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S28" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S28" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T28">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V28" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W28" s="21">
+        <v>48</v>
+      </c>
+      <c r="V28" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W28" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y28">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="29" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M29" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M29" s="3">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="4">
         <f t="shared" si="16"/>
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="P29">
         <f t="shared" si="2"/>
@@ -2421,39 +2041,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R29" s="8">
         <f t="shared" si="18"/>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S29" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S29" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T29">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V29" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W29" s="21">
+        <v>48</v>
+      </c>
+      <c r="V29" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W29" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y29">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="30" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M30" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M30" s="3">
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="4">
         <f t="shared" si="16"/>
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
@@ -2463,39 +2083,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R30" s="8">
         <f t="shared" si="18"/>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S30" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S30" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T30">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V30" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W30" s="21">
+        <v>48</v>
+      </c>
+      <c r="V30" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W30" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y30">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="31" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M31" s="8">
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M31" s="3">
         <f t="shared" si="17"/>
         <v>500</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="6">
         <f t="shared" si="16"/>
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
@@ -2505,45 +2125,45 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R31" s="8">
         <f t="shared" si="18"/>
-        <v>1.5576171875E-3</v>
-      </c>
-      <c r="S31" s="22">
+        <v>1.0384114583333335E-3</v>
+      </c>
+      <c r="S31" s="11">
         <f t="shared" si="5"/>
-        <v>642.00626959247654</v>
+        <v>963.00940438871464</v>
       </c>
       <c r="T31">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V31" s="22">
-        <f t="shared" si="7"/>
-        <v>20.062695924764892</v>
-      </c>
-      <c r="W31" s="21">
+        <v>48</v>
+      </c>
+      <c r="V31" s="11">
+        <f t="shared" si="7"/>
+        <v>30.094043887147329</v>
+      </c>
+      <c r="W31" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y31">
         <f t="shared" si="9"/>
-        <v>233642.578125</v>
-      </c>
-    </row>
-    <row r="32" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="S32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="21"/>
+        <v>155761.71875000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="10"/>
     </row>
     <row r="33" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>5</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" s="20" t="s">
-        <v>8</v>
+      <c r="M33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="P33">
         <f t="shared" si="2"/>
@@ -2553,39 +2173,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="8">
         <f>P33*Q33*H5*C$2</f>
-        <v>3.1152343749999999E-3</v>
-      </c>
-      <c r="S33" s="22">
+        <v>2.0768229166666669E-3</v>
+      </c>
+      <c r="S33" s="11">
         <f t="shared" si="5"/>
-        <v>321.00313479623827</v>
+        <v>481.50470219435732</v>
       </c>
       <c r="T33">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="V33" s="22">
-        <f t="shared" si="7"/>
-        <v>10.031347962382446</v>
-      </c>
-      <c r="W33" s="21">
+        <v>24</v>
+      </c>
+      <c r="V33" s="11">
+        <f t="shared" si="7"/>
+        <v>15.047021943573665</v>
+      </c>
+      <c r="W33" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y33">
         <f t="shared" si="9"/>
-        <v>467285.15625</v>
+        <v>311523.43750000006</v>
       </c>
     </row>
     <row r="34" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M34" s="8">
+      <c r="M34" s="3">
         <f>M26</f>
         <v>6</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="4">
         <f t="shared" ref="N34:N39" si="19">$J$2*M34</f>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P34">
         <f t="shared" si="2"/>
@@ -2595,39 +2215,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R34" s="8">
         <f>R33</f>
-        <v>3.1152343749999999E-3</v>
-      </c>
-      <c r="S34" s="22">
+        <v>2.0768229166666669E-3</v>
+      </c>
+      <c r="S34" s="11">
         <f t="shared" si="5"/>
-        <v>321.00313479623827</v>
+        <v>481.50470219435732</v>
       </c>
       <c r="T34">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="V34" s="22">
-        <f t="shared" si="7"/>
-        <v>10.031347962382446</v>
-      </c>
-      <c r="W34" s="21">
+        <v>24</v>
+      </c>
+      <c r="V34" s="11">
+        <f t="shared" si="7"/>
+        <v>15.047021943573665</v>
+      </c>
+      <c r="W34" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y34">
         <f t="shared" si="9"/>
-        <v>467285.15625</v>
+        <v>311523.43750000006</v>
       </c>
     </row>
     <row r="35" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M35" s="8">
+      <c r="M35" s="3">
         <f t="shared" ref="M35:M39" si="20">M27</f>
         <v>10</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="4">
         <f t="shared" si="19"/>
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="P35">
         <f t="shared" si="2"/>
@@ -2637,39 +2257,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R35" s="8">
         <f t="shared" ref="R35:R38" si="21">R34</f>
-        <v>3.1152343749999999E-3</v>
-      </c>
-      <c r="S35" s="22">
+        <v>2.0768229166666669E-3</v>
+      </c>
+      <c r="S35" s="11">
         <f t="shared" si="5"/>
-        <v>321.00313479623827</v>
+        <v>481.50470219435732</v>
       </c>
       <c r="T35">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="V35" s="22">
-        <f t="shared" si="7"/>
-        <v>10.031347962382446</v>
-      </c>
-      <c r="W35" s="21">
+        <v>24</v>
+      </c>
+      <c r="V35" s="11">
+        <f t="shared" si="7"/>
+        <v>15.047021943573665</v>
+      </c>
+      <c r="W35" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y35">
         <f t="shared" si="9"/>
-        <v>467285.15625</v>
+        <v>311523.43750000006</v>
       </c>
     </row>
     <row r="36" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M36" s="8">
+      <c r="M36" s="3">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="4">
         <f t="shared" si="19"/>
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="P36">
         <f t="shared" si="2"/>
@@ -2679,39 +2299,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R36" s="8">
         <f t="shared" si="21"/>
-        <v>3.1152343749999999E-3</v>
-      </c>
-      <c r="S36" s="22">
+        <v>2.0768229166666669E-3</v>
+      </c>
+      <c r="S36" s="11">
         <f t="shared" si="5"/>
-        <v>321.00313479623827</v>
+        <v>481.50470219435732</v>
       </c>
       <c r="T36">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="V36" s="22">
-        <f t="shared" si="7"/>
-        <v>10.031347962382446</v>
-      </c>
-      <c r="W36" s="21">
+        <v>24</v>
+      </c>
+      <c r="V36" s="11">
+        <f t="shared" si="7"/>
+        <v>15.047021943573665</v>
+      </c>
+      <c r="W36" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y36">
         <f t="shared" si="9"/>
-        <v>467285.15625</v>
+        <v>311523.43750000006</v>
       </c>
     </row>
     <row r="37" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M37" s="8">
+      <c r="M37" s="3">
         <f t="shared" si="20"/>
         <v>100</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="4">
         <f t="shared" si="19"/>
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="P37">
         <f t="shared" si="2"/>
@@ -2721,39 +2341,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R37" s="19">
+      <c r="R37" s="8">
         <f t="shared" si="21"/>
-        <v>3.1152343749999999E-3</v>
-      </c>
-      <c r="S37" s="22">
+        <v>2.0768229166666669E-3</v>
+      </c>
+      <c r="S37" s="11">
         <f t="shared" si="5"/>
-        <v>321.00313479623827</v>
+        <v>481.50470219435732</v>
       </c>
       <c r="T37">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="V37" s="22">
-        <f t="shared" si="7"/>
-        <v>10.031347962382446</v>
-      </c>
-      <c r="W37" s="21">
+        <v>24</v>
+      </c>
+      <c r="V37" s="11">
+        <f t="shared" si="7"/>
+        <v>15.047021943573665</v>
+      </c>
+      <c r="W37" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y37">
         <f t="shared" si="9"/>
-        <v>467285.15625</v>
+        <v>311523.43750000006</v>
       </c>
     </row>
     <row r="38" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M38" s="8">
+      <c r="M38" s="3">
         <f t="shared" si="20"/>
         <v>200</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="6">
         <f t="shared" si="19"/>
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
       <c r="P38">
         <f t="shared" si="2"/>
@@ -2763,39 +2383,39 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R38" s="19">
+      <c r="R38" s="8">
         <f t="shared" si="21"/>
-        <v>3.1152343749999999E-3</v>
-      </c>
-      <c r="S38" s="22">
+        <v>2.0768229166666669E-3</v>
+      </c>
+      <c r="S38" s="11">
         <f t="shared" si="5"/>
-        <v>321.00313479623827</v>
+        <v>481.50470219435732</v>
       </c>
       <c r="T38">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="V38" s="22">
-        <f t="shared" si="7"/>
-        <v>10.031347962382446</v>
-      </c>
-      <c r="W38" s="21">
+        <v>24</v>
+      </c>
+      <c r="V38" s="11">
+        <f t="shared" si="7"/>
+        <v>15.047021943573665</v>
+      </c>
+      <c r="W38" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y38">
         <f t="shared" si="9"/>
-        <v>467285.15625</v>
+        <v>311523.43750000006</v>
       </c>
     </row>
     <row r="39" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M39" s="8">
+      <c r="M39" s="3">
         <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="19"/>
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="P39">
         <f t="shared" si="2"/>
@@ -2805,29 +2425,29 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R39" s="8">
         <f t="shared" ref="R39" si="22">R38</f>
-        <v>3.1152343749999999E-3</v>
-      </c>
-      <c r="S39" s="22">
+        <v>2.0768229166666669E-3</v>
+      </c>
+      <c r="S39" s="11">
         <f t="shared" si="5"/>
-        <v>321.00313479623827</v>
+        <v>481.50470219435732</v>
       </c>
       <c r="T39">
         <f t="shared" ref="T39" si="23">ROUND(S39*C$9,0)</f>
-        <v>16</v>
-      </c>
-      <c r="V39" s="22">
-        <f t="shared" si="7"/>
-        <v>10.031347962382446</v>
-      </c>
-      <c r="W39" s="21">
+        <v>24</v>
+      </c>
+      <c r="V39" s="11">
+        <f t="shared" si="7"/>
+        <v>15.047021943573665</v>
+      </c>
+      <c r="W39" s="10">
         <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="Y39">
         <f>R39*300000000/2</f>
-        <v>467285.15625</v>
+        <v>311523.43750000006</v>
       </c>
     </row>
   </sheetData>
@@ -2838,7 +2458,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{839C6E27-C9C0-4E4D-B4CA-A379B259B926}">
           <x14:formula1>
-            <xm:f>Data_Validation!$B$4:$B$15</xm:f>
+            <xm:f>Data_Validation!$B$4:$B$19</xm:f>
           </x14:formula1>
           <xm:sqref>C1</xm:sqref>
         </x14:dataValidation>
@@ -2848,12 +2468,527 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7DBA8-E0F1-4651-8F21-921A6E20FC55}">
+  <dimension ref="C1:Z42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="26">
+        <v>2048000000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="25">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="24">
+        <f>1/K17</f>
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="29">
+        <v>2048</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="8">
+        <f>300000000/(2*S2)</f>
+        <v>9000</v>
+      </c>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="11">
+        <v>512</v>
+      </c>
+      <c r="K4" s="24">
+        <f>K$2/J4</f>
+        <v>4000000</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="28">
+        <f>K2/O3</f>
+        <v>1000000</v>
+      </c>
+      <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="24">
+        <f>300000000/(2*O5)</f>
+        <v>7.5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="11">
+        <v>1024</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" ref="K5:K10" si="0">K$2/J5</f>
+        <v>2000000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="27">
+        <f>O2*O4</f>
+        <v>20000000</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="1">
+        <f>300000000/(4*O15*K17)</f>
+        <v>520.83333333333337</v>
+      </c>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="11">
+        <v>2048</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="24">
+        <f>O16*S2</f>
+        <v>1666.666666666667</v>
+      </c>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="J7" s="11">
+        <v>4096</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1">
+        <f>2*S5/(S6)</f>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+      <c r="J8" s="11">
+        <v>6114</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>334968.92378148512</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="3:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="11">
+        <v>8192</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="11">
+        <v>10240</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="11"/>
+      <c r="Q11" s="3"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="I12" s="23"/>
+      <c r="J12" s="11"/>
+      <c r="Q12" s="3"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="J13" s="11"/>
+      <c r="Q13" s="3"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="3:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="25">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="30">
+        <v>2400000000</v>
+      </c>
+      <c r="P15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="25">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16">
+        <v>0.1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="28">
+        <f>K15*K16*O3*(K2^-1)</f>
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <v>100000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="3:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="3:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="22"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z42" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B5D3E1-E6C7-44BB-AA06-3B9C3D83F870}">
-  <dimension ref="B3:B15"/>
+  <dimension ref="B3:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2863,7 +2998,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -2894,7 +3029,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <f t="shared" ref="B9:B15" si="0">2*B5</f>
+        <f t="shared" ref="B9:B11" si="0">2*B5</f>
         <v>40960000</v>
       </c>
     </row>
@@ -2912,25 +3047,49 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>8192000</v>
+        <f>3*B4</f>
+        <v>6144000</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>81920000</v>
+        <f t="shared" ref="B13:B15" si="1">3*B5</f>
+        <v>61440000</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>819200000</v>
+        <f t="shared" si="1"/>
+        <v>614400000</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>6144000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>2*B8</f>
+        <v>8192000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f>2*B9</f>
+        <v>81920000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f>2*B10</f>
+        <v>819200000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>2*B11</f>
         <v>8192000000</v>
       </c>
     </row>
